--- a/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
+++ b/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF367194-8971-4FBE-8087-E02DA06BCD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB57624-B8AF-432F-BB67-B41D722AB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="310">
   <si>
     <t>Project Name:</t>
   </si>
@@ -961,10 +961,26 @@
     <t xml:space="preserve">Failed </t>
   </si>
   <si>
-    <t>TC-58</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Bug Description</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Steps to Execute</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Bug Screen Shot</t>
+  </si>
+  <si>
+    <t>OS: Android 13, 
+Device: Vivo Y22</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1164,9 +1180,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1251,14 +1270,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,30 +1559,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="8" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1571,7 +1590,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1579,7 +1598,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -1587,19 +1606,21 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5">
+        <v>45328</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1630,14 +1651,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1655,20 +1676,20 @@
       <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="29" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1686,18 +1707,18 @@
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1713,18 +1734,18 @@
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1740,16 +1761,18 @@
       <c r="H10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="29" t="s">
         <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1761,25 +1784,25 @@
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1788,24 +1811,24 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1815,24 +1838,24 @@
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1846,18 +1869,18 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1873,18 +1896,18 @@
       <c r="H15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1900,18 +1923,18 @@
       <c r="H16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1927,18 +1950,18 @@
       <c r="H17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1954,18 +1977,18 @@
       <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1981,37 +2004,37 @@
       <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2029,18 +2052,18 @@
       <c r="H21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2056,16 +2079,16 @@
       <c r="H22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2081,18 +2104,18 @@
       <c r="H23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2108,18 +2131,18 @@
       <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2135,20 +2158,20 @@
       <c r="H25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2164,18 +2187,18 @@
       <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2191,18 +2214,18 @@
       <c r="H27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2218,18 +2241,18 @@
       <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2247,18 +2270,18 @@
       <c r="H29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2274,18 +2297,18 @@
       <c r="H30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="30" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2303,16 +2326,16 @@
       <c r="H31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="2" t="s">
         <v>125</v>
       </c>
@@ -2328,18 +2351,18 @@
       <c r="H32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="30" t="s">
         <v>296</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2357,16 +2380,16 @@
       <c r="H33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="2" t="s">
         <v>132</v>
       </c>
@@ -2382,17 +2405,17 @@
       <c r="H34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="29" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2413,17 +2436,17 @@
       <c r="H35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="2" t="s">
         <v>145</v>
       </c>
@@ -2442,49 +2465,49 @@
       <c r="H36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>156</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2502,17 +2525,17 @@
       <c r="H38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
@@ -2531,17 +2554,17 @@
       <c r="H39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
         <v>164</v>
       </c>
@@ -2560,17 +2583,17 @@
       <c r="H40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="2" t="s">
         <v>171</v>
       </c>
@@ -2589,18 +2612,18 @@
       <c r="H41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2618,18 +2641,18 @@
       <c r="H42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="19" t="s">
         <v>298</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2647,47 +2670,47 @@
       <c r="H43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="E44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2705,17 +2728,17 @@
       <c r="H45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="2" t="s">
         <v>191</v>
       </c>
@@ -2734,17 +2757,17 @@
       <c r="H46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="2" t="s">
         <v>195</v>
       </c>
@@ -2763,17 +2786,17 @@
       <c r="H47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="2" t="s">
         <v>199</v>
       </c>
@@ -2792,17 +2815,17 @@
       <c r="H48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="29" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2823,17 +2846,17 @@
       <c r="H49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="35"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
@@ -2852,17 +2875,17 @@
       <c r="H50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="35"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="2" t="s">
         <v>218</v>
       </c>
@@ -2881,17 +2904,17 @@
       <c r="H51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="12" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>224</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2912,17 +2935,17 @@
       <c r="H52" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="12" t="s">
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>232</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2943,17 +2966,17 @@
       <c r="H53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="2" t="s">
         <v>237</v>
       </c>
@@ -2972,17 +2995,17 @@
       <c r="H54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="12" t="s">
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="2" t="s">
         <v>241</v>
       </c>
@@ -3001,17 +3024,17 @@
       <c r="H55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="2" t="s">
         <v>245</v>
       </c>
@@ -3030,17 +3053,17 @@
       <c r="H56" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="12" t="s">
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="2" t="s">
         <v>250</v>
       </c>
@@ -3059,17 +3082,17 @@
       <c r="H57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="12" t="s">
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3090,17 +3113,17 @@
       <c r="H58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="2" t="s">
         <v>264</v>
       </c>
@@ -3119,17 +3142,17 @@
       <c r="H59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="12" t="s">
+      <c r="I59" s="11"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="2" t="s">
         <v>268</v>
       </c>
@@ -3148,17 +3171,17 @@
       <c r="H60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="I60" s="11"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="2" t="s">
         <v>273</v>
       </c>
@@ -3177,17 +3200,17 @@
       <c r="H61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="I61" s="11"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="2" t="s">
         <v>277</v>
       </c>
@@ -3206,17 +3229,17 @@
       <c r="H62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="12" t="s">
+      <c r="I62" s="11"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="2" t="s">
         <v>282</v>
       </c>
@@ -3235,19 +3258,122 @@
       <c r="H63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>304</v>
-      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="36"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="36"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3272,12 +3398,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169BD0B-786C-4C25-B011-25F528316559}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="37" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
+++ b/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB57624-B8AF-432F-BB67-B41D722AB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001419F-F47D-4206-B6DC-F69BE6A8BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="311">
   <si>
     <t>Project Name:</t>
   </si>
@@ -981,6 +981,9 @@
   <si>
     <t>OS: Android 13, 
 Device: Vivo Y22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC End Date: </t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1159,11 +1162,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1249,6 +1261,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1270,14 +1291,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,7 +1583,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,10 +1627,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="40">
         <v>45328</v>
       </c>
     </row>
@@ -1655,7 +1676,7 @@
       <c r="A7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1688,8 +1709,8 @@
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="32" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1717,8 +1738,8 @@
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1744,8 +1765,8 @@
       <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1771,8 +1792,8 @@
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="32" t="s">
         <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1800,8 +1821,8 @@
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1827,8 +1848,8 @@
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1854,8 +1875,8 @@
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1879,8 +1900,8 @@
       <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1906,8 +1927,8 @@
       <c r="A16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1933,8 +1954,8 @@
       <c r="A17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1960,8 +1981,8 @@
       <c r="A18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1987,8 +2008,8 @@
       <c r="A19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2014,8 +2035,8 @@
       <c r="A20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="16" t="s">
         <v>53</v>
       </c>
@@ -2033,8 +2054,8 @@
       <c r="A21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="33" t="s">
         <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2062,8 +2083,8 @@
       <c r="A22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2087,8 +2108,8 @@
       <c r="A23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2114,8 +2135,8 @@
       <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2141,8 +2162,8 @@
       <c r="A25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2170,8 +2191,8 @@
       <c r="A26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2197,8 +2218,8 @@
       <c r="A27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2224,8 +2245,8 @@
       <c r="A28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2251,8 +2272,8 @@
       <c r="A29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="33" t="s">
         <v>294</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2280,8 +2301,8 @@
       <c r="A30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2307,8 +2328,8 @@
       <c r="A31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="33" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2334,8 +2355,8 @@
       <c r="A32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="2" t="s">
         <v>125</v>
       </c>
@@ -2361,8 +2382,8 @@
       <c r="A33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="33" t="s">
         <v>296</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2388,8 +2409,8 @@
       <c r="A34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="2" t="s">
         <v>132</v>
       </c>
@@ -2415,7 +2436,7 @@
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2446,7 +2467,7 @@
       <c r="A36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="2" t="s">
         <v>145</v>
       </c>
@@ -2475,7 +2496,7 @@
       <c r="A37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="16" t="s">
         <v>149</v>
       </c>
@@ -2504,7 +2525,7 @@
       <c r="A38" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="33" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2535,7 +2556,7 @@
       <c r="A39" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
@@ -2564,7 +2585,7 @@
       <c r="A40" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="2" t="s">
         <v>164</v>
       </c>
@@ -2593,7 +2614,7 @@
       <c r="A41" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="2" t="s">
         <v>171</v>
       </c>
@@ -2622,7 +2643,7 @@
       <c r="A42" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="18" t="s">
         <v>297</v>
       </c>
@@ -2651,7 +2672,7 @@
       <c r="A43" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="19" t="s">
         <v>298</v>
       </c>
@@ -2680,7 +2701,7 @@
       <c r="A44" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="19" t="s">
         <v>299</v>
       </c>
@@ -2709,7 +2730,7 @@
       <c r="A45" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="12" t="s">
         <v>187</v>
       </c>
@@ -2738,7 +2759,7 @@
       <c r="A46" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="2" t="s">
         <v>191</v>
       </c>
@@ -2767,7 +2788,7 @@
       <c r="A47" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="2" t="s">
         <v>195</v>
       </c>
@@ -2796,7 +2817,7 @@
       <c r="A48" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="2" t="s">
         <v>199</v>
       </c>
@@ -2825,7 +2846,7 @@
       <c r="A49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="32" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2856,7 +2877,7 @@
       <c r="A50" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
@@ -2885,7 +2906,7 @@
       <c r="A51" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="2" t="s">
         <v>218</v>
       </c>
@@ -2945,7 +2966,7 @@
       <c r="A53" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="33" t="s">
         <v>232</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2976,7 +2997,7 @@
       <c r="A54" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="2" t="s">
         <v>237</v>
       </c>
@@ -3005,7 +3026,7 @@
       <c r="A55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="2" t="s">
         <v>241</v>
       </c>
@@ -3034,7 +3055,7 @@
       <c r="A56" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="2" t="s">
         <v>245</v>
       </c>
@@ -3063,7 +3084,7 @@
       <c r="A57" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="2" t="s">
         <v>250</v>
       </c>
@@ -3092,7 +3113,7 @@
       <c r="A58" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3123,7 +3144,7 @@
       <c r="A59" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="2" t="s">
         <v>264</v>
       </c>
@@ -3152,7 +3173,7 @@
       <c r="A60" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="2" t="s">
         <v>268</v>
       </c>
@@ -3181,7 +3202,7 @@
       <c r="A61" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="31"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="2" t="s">
         <v>273</v>
       </c>
@@ -3210,7 +3231,7 @@
       <c r="A62" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="2" t="s">
         <v>277</v>
       </c>
@@ -3239,7 +3260,7 @@
       <c r="A63" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="2" t="s">
         <v>282</v>
       </c>
@@ -3265,112 +3286,112 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
+      <c r="A64" s="29"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
+      <c r="A65" s="29"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+      <c r="A66" s="29"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+      <c r="A67" s="29"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
+      <c r="A68" s="29"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
+      <c r="A69" s="29"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+      <c r="A70" s="29"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
+      <c r="A71" s="29"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+      <c r="A72" s="29"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+      <c r="A73" s="29"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+      <c r="A74" s="29"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+      <c r="A75" s="29"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
+      <c r="A76" s="29"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
+      <c r="A77" s="29"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
+      <c r="A78" s="29"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
+      <c r="A79" s="29"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
+      <c r="A80" s="29"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
+      <c r="A81" s="29"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
+      <c r="A82" s="29"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+      <c r="A83" s="29"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
+      <c r="A84" s="29"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
+      <c r="A85" s="29"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
+      <c r="A86" s="29"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
+      <c r="A87" s="29"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
+      <c r="A88" s="29"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
+      <c r="A89" s="29"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
+      <c r="A90" s="29"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
+      <c r="A91" s="29"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
+      <c r="A92" s="29"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
+      <c r="A93" s="29"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
+      <c r="A94" s="29"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
+      <c r="A95" s="29"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
+      <c r="A96" s="29"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
+      <c r="A97" s="29"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
+      <c r="A98" s="29"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
+      <c r="A99" s="29"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
@@ -3401,11 +3422,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="39"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
@@ -3415,26 +3437,26 @@
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3442,75 +3464,75 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="31" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="39" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="39" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="39" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="39" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="39" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="39" t="s">
         <v>257</v>
       </c>
     </row>

--- a/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
+++ b/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001419F-F47D-4206-B6DC-F69BE6A8BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89369CA-0E52-47E4-B81E-56FEB02BE3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="344">
   <si>
     <t>Project Name:</t>
   </si>
@@ -985,12 +985,169 @@
   <si>
     <t xml:space="preserve">TC End Date: </t>
   </si>
+  <si>
+    <t>The sign up/Create account button isn't easily visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open the app
+2) Click on the navbar icon on the top right corner
+3) Scroll down and click on the Sign in button
+</t>
+  </si>
+  <si>
+    <t>Sign up/ Create Account Button</t>
+  </si>
+  <si>
+    <t>There should be a SignUp button/ Create Account link for better UI</t>
+  </si>
+  <si>
+    <t>For entering an invalid email format there should be shown an appropriate error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open the app, 
+2) Click on the navbar icon, 
+3) Scroll down and click on Sign in, 
+4) Select "Continue with Email",
+5) Enter an invalid email address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open the app, 
+2) Click on the navbar icon, 
+3) Scroll down and click on Sign in, 
+4) Select "Continue with Email",
+5)  Enter an email address that is already registered </t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon 
+3) Scroll down and click on Sign in
+4) Select "Continue with Email"
+5) Enter a valid email address
+6) Click on the "Send OTP" button
+7) Wait for the OTP to expire (120s), 
+8) Enter the expired OTP in the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue with Email"
+5) Enter a valid email address
+6) Click on the "Send OTP" button
+7) Enter the received OTP in the app, 8) Leave the name or phone number field empty phone number
+9) Click on the "Save" button </t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Try to register without filling in the required fields</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue another way"
+5)  Enter a valid phone number
+6) Click on the "Send OTP" button
+7) Wait for the OTP to expire
+8) Enter the expired OTP in the app</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue another way"
+5)  Enter a valid phone number
+6) Click on the "Send OTP" button
+7)Leave the name or email field empty
+8) Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue another way"
+5)  Enter a valid phone number
+6) Click on the "Send OTP" button
+7)Enter an invalid email format
+8) Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Walton Eplaza</t>
+  </si>
+  <si>
+    <t>TC Start Date</t>
+  </si>
+  <si>
+    <t>TC Execution Start Date</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Register &amp; Login</t>
+  </si>
+  <si>
+    <t>TC End Date</t>
+  </si>
+  <si>
+    <t>TC Execution End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>Test Case Developed By</t>
+  </si>
+  <si>
+    <t>Manik Hossain</t>
+  </si>
+  <si>
+    <t>Browser (tested)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Developer Name(TL)</t>
+  </si>
+  <si>
+    <t>Test Case Reviewed By</t>
+  </si>
+  <si>
+    <t>Performance (tested)</t>
+  </si>
+  <si>
+    <t>Test Executed by</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue with Email"
+5) Enter the unregistered email address</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Click on the navbar icon
+3) Scroll down and click on Sign in
+4) Select "Continue another Way"
+5) Enter the unregistered phone number</t>
+  </si>
+  <si>
+    <t>1) Open the app
+2) Navigate to a video
+3) Click on the download button
+4) Wait for the video to download</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1176,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,8 +1213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEEF4"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1357,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1267,12 +1465,81 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1291,17 +1558,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1582,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,9 +1852,9 @@
     <col min="3" max="3" width="21.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="8" customWidth="1"/>
@@ -1627,10 +1886,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="33">
         <v>45328</v>
       </c>
     </row>
@@ -1676,7 +1935,7 @@
       <c r="A7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1697,7 +1956,7 @@
       <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="35" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="10"/>
@@ -1709,8 +1968,8 @@
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="55" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1738,8 +1997,8 @@
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1765,8 +2024,8 @@
       <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1792,8 +2051,8 @@
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="55" t="s">
         <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1821,8 +2080,8 @@
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1848,8 +2107,8 @@
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1875,8 +2134,8 @@
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1900,8 +2159,8 @@
       <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1927,8 +2186,8 @@
       <c r="A16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1954,8 +2213,8 @@
       <c r="A17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1981,8 +2240,8 @@
       <c r="A18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2267,8 @@
       <c r="A19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2035,8 +2294,8 @@
       <c r="A20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="16" t="s">
         <v>53</v>
       </c>
@@ -2054,8 +2313,8 @@
       <c r="A21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="56" t="s">
         <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2083,8 +2342,8 @@
       <c r="A22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2108,8 +2367,8 @@
       <c r="A23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2135,8 +2394,8 @@
       <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2162,8 +2421,8 @@
       <c r="A25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2191,8 +2450,8 @@
       <c r="A26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2218,8 +2477,8 @@
       <c r="A27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2245,8 +2504,8 @@
       <c r="A28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2272,8 +2531,8 @@
       <c r="A29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="56" t="s">
         <v>294</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2301,8 +2560,8 @@
       <c r="A30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2328,8 +2587,8 @@
       <c r="A31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="56" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2355,8 +2614,8 @@
       <c r="A32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="2" t="s">
         <v>125</v>
       </c>
@@ -2382,8 +2641,8 @@
       <c r="A33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="60"/>
+      <c r="C33" s="56" t="s">
         <v>296</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2409,8 +2668,8 @@
       <c r="A34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="2" t="s">
         <v>132</v>
       </c>
@@ -2436,7 +2695,7 @@
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="55" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2467,7 +2726,7 @@
       <c r="A36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>145</v>
       </c>
@@ -2496,7 +2755,7 @@
       <c r="A37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="16" t="s">
         <v>149</v>
       </c>
@@ -2525,7 +2784,7 @@
       <c r="A38" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="56" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2556,7 +2815,7 @@
       <c r="A39" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
@@ -2585,7 +2844,7 @@
       <c r="A40" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="2" t="s">
         <v>164</v>
       </c>
@@ -2614,7 +2873,7 @@
       <c r="A41" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="2" t="s">
         <v>171</v>
       </c>
@@ -2643,7 +2902,7 @@
       <c r="A42" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="18" t="s">
         <v>297</v>
       </c>
@@ -2672,7 +2931,7 @@
       <c r="A43" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="19" t="s">
         <v>298</v>
       </c>
@@ -2701,7 +2960,7 @@
       <c r="A44" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="19" t="s">
         <v>299</v>
       </c>
@@ -2730,7 +2989,7 @@
       <c r="A45" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="12" t="s">
         <v>187</v>
       </c>
@@ -2759,7 +3018,7 @@
       <c r="A46" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="2" t="s">
         <v>191</v>
       </c>
@@ -2788,7 +3047,7 @@
       <c r="A47" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="2" t="s">
         <v>195</v>
       </c>
@@ -2817,7 +3076,7 @@
       <c r="A48" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="35"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="2" t="s">
         <v>199</v>
       </c>
@@ -2846,7 +3105,7 @@
       <c r="A49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="55" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2877,7 +3136,7 @@
       <c r="A50" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
@@ -2906,7 +3165,7 @@
       <c r="A51" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="2" t="s">
         <v>218</v>
       </c>
@@ -2966,7 +3225,7 @@
       <c r="A53" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="56" t="s">
         <v>232</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2997,7 +3256,7 @@
       <c r="A54" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="2" t="s">
         <v>237</v>
       </c>
@@ -3026,7 +3285,7 @@
       <c r="A55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="2" t="s">
         <v>241</v>
       </c>
@@ -3055,7 +3314,7 @@
       <c r="A56" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="2" t="s">
         <v>245</v>
       </c>
@@ -3084,7 +3343,7 @@
       <c r="A57" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="2" t="s">
         <v>250</v>
       </c>
@@ -3113,7 +3372,7 @@
       <c r="A58" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="56" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3144,7 +3403,7 @@
       <c r="A59" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="2" t="s">
         <v>264</v>
       </c>
@@ -3173,7 +3432,7 @@
       <c r="A60" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="2" t="s">
         <v>268</v>
       </c>
@@ -3202,7 +3461,7 @@
       <c r="A61" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="2" t="s">
         <v>273</v>
       </c>
@@ -3231,7 +3490,7 @@
       <c r="A62" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="2" t="s">
         <v>277</v>
       </c>
@@ -3260,7 +3519,7 @@
       <c r="A63" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="2" t="s">
         <v>282</v>
       </c>
@@ -3288,52 +3547,126 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="44">
+        <v>45051</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" s="46">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="54"/>
+      <c r="C68" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="44">
+        <v>45052</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="G68" s="46">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69" s="54"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B70" s="54"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="54"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -3397,7 +3730,7 @@
       <c r="A100" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B58:B63"/>
@@ -3410,10 +3743,19 @@
     <mergeCell ref="B38:B48"/>
     <mergeCell ref="B7:B34"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{D2308F29-1F5C-436B-B282-6AF4825CF479}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3421,27 +3763,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169BD0B-786C-4C25-B011-25F528316559}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="19" style="39" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3450,10 +3793,10 @@
       <c r="D1" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="3" t="s">
         <v>307</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -3463,81 +3806,333 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="E2" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="B5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="B6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="B7" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="B8" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="B9" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="B11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="B12" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="B13" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>230</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="28" t="s">
         <v>257</v>
       </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="28"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{6EEDB61B-8122-42B8-B63C-053B4B9D1FC9}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{B5A7D979-6F17-4C7E-9CFF-6CBC9A2FA87E}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{D61EED84-B8E2-4F2E-970A-B5F1B9D13FE1}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{CD0B5DD3-712C-4D31-8DBF-DA09C83FBCFC}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{0D8448B0-F81C-4CC5-827D-DF77082A3AFD}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{CB5AEEAB-79DA-432F-A572-BE252D5D48EC}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{2188A1B1-46C1-4487-82AB-0F41DB5BB8CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
+++ b/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F1047-DB0F-4128-B738-E239BD9AC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A40E3-088E-4B3C-B1E5-16A890FF1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="354">
   <si>
     <t>Faysal Mahmud</t>
   </si>
@@ -1198,12 +1198,15 @@
   <si>
     <t>Test Executed By</t>
   </si>
+  <si>
+    <t>Bug Reporting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,8 +1258,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,6 +1284,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1398,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1520,51 +1537,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1868,10 +1889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="33" t="s">
         <v>351</v>
       </c>
@@ -1889,10 +1910,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
         <v>321</v>
@@ -1908,8 +1929,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="38"/>
       <c r="D3" s="37" t="s">
         <v>323</v>
@@ -1924,56 +1945,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="43"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="53"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10" s="50" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="5" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" s="44" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="44" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2646,7 +2667,7 @@
       <c r="B29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="53" t="s">
         <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2676,7 +2697,7 @@
       <c r="B30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2725,7 @@
       <c r="B31" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="53" t="s">
         <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2732,7 +2753,7 @@
       <c r="B32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="1" t="s">
         <v>119</v>
       </c>
@@ -2760,7 +2781,7 @@
       <c r="B33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="53" t="s">
         <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2788,7 +2809,7 @@
       <c r="B34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
@@ -2813,7 +2834,7 @@
       <c r="A35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2843,7 +2864,7 @@
       <c r="A36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="1" t="s">
         <v>139</v>
       </c>
@@ -2871,7 +2892,7 @@
       <c r="A37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="13" t="s">
         <v>143</v>
       </c>
@@ -3229,7 +3250,7 @@
       <c r="A49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="52" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3259,7 +3280,7 @@
       <c r="A50" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
@@ -3287,7 +3308,7 @@
       <c r="A51" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="1" t="s">
         <v>212</v>
       </c>
@@ -3347,7 +3368,7 @@
       <c r="A53" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="53" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3377,7 +3398,7 @@
       <c r="A54" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="1" t="s">
         <v>231</v>
       </c>
@@ -3405,7 +3426,7 @@
       <c r="A55" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="44"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="1" t="s">
         <v>235</v>
       </c>
@@ -3433,7 +3454,7 @@
       <c r="A56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B56" s="44"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="1" t="s">
         <v>239</v>
       </c>
@@ -3461,7 +3482,7 @@
       <c r="A57" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="1" t="s">
         <v>244</v>
       </c>
@@ -3704,31 +3725,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="42"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="42"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="42"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="42"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="42"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
-      <c r="B72" s="47"/>
+      <c r="B72" s="42"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
-      <c r="B73" s="47"/>
+      <c r="B73" s="42"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
@@ -3813,16 +3834,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3843,11 +3864,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169BD0B-786C-4C25-B011-25F528316559}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,76 +3883,62 @@
     <col min="8" max="8" width="19.85546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" s="57" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>25</v>
@@ -3940,24 +3947,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
+      <c r="C4" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>25</v>
@@ -3966,76 +3973,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>329</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="H5" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>25</v>
@@ -4044,252 +4051,281 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>314</v>
+        <v>332</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>12</v>
+      <c r="H8" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>14</v>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>315</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H10" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>313</v>
+        <v>335</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="H14" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E16" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="H16" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H17" s="31" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{6EEDB61B-8122-42B8-B63C-053B4B9D1FC9}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{B5A7D979-6F17-4C7E-9CFF-6CBC9A2FA87E}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{D61EED84-B8E2-4F2E-970A-B5F1B9D13FE1}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{CD0B5DD3-712C-4D31-8DBF-DA09C83FBCFC}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{0D8448B0-F81C-4CC5-827D-DF77082A3AFD}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{CB5AEEAB-79DA-432F-A572-BE252D5D48EC}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{2188A1B1-46C1-4487-82AB-0F41DB5BB8CF}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{F4A2C136-411D-4AB5-9631-270015ABEF0E}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{6DA07BE9-0206-490F-B56A-B67CFBCE0D36}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{6EEDB61B-8122-42B8-B63C-053B4B9D1FC9}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{B5A7D979-6F17-4C7E-9CFF-6CBC9A2FA87E}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{D61EED84-B8E2-4F2E-970A-B5F1B9D13FE1}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{CD0B5DD3-712C-4D31-8DBF-DA09C83FBCFC}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{0D8448B0-F81C-4CC5-827D-DF77082A3AFD}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{CB5AEEAB-79DA-432F-A572-BE252D5D48EC}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{2188A1B1-46C1-4487-82AB-0F41DB5BB8CF}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{F4A2C136-411D-4AB5-9631-270015ABEF0E}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{6DA07BE9-0206-490F-B56A-B67CFBCE0D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
+++ b/Manual Testing/Test Case Writing/Mobile Application Testing/Mahfil App Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A40E3-088E-4B3C-B1E5-16A890FF1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABFAC4E-61A3-4E09-93BB-ECD3665E6FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -1564,28 +1564,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,10 +1889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="33" t="s">
         <v>351</v>
       </c>
@@ -1910,10 +1910,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
         <v>321</v>
@@ -1929,8 +1929,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="38"/>
       <c r="D3" s="37" t="s">
         <v>323</v>
@@ -1947,11 +1947,11 @@
     </row>
     <row r="4" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="43"/>
       <c r="J4" s="23"/>
     </row>
@@ -2150,7 +2150,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>104</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="B29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2697,7 +2697,7 @@
       <c r="B30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="B31" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="51" t="s">
         <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2753,7 +2753,7 @@
       <c r="B32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="1" t="s">
         <v>119</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="B33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="51" t="s">
         <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2809,7 +2809,7 @@
       <c r="B34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="A35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="54" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2864,7 +2864,7 @@
       <c r="A36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="1" t="s">
         <v>139</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="A37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="13" t="s">
         <v>143</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="A49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="54" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3280,7 +3280,7 @@
       <c r="A50" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="A51" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="52"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="1" t="s">
         <v>212</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="A53" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="51" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3398,7 +3398,7 @@
       <c r="A54" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="1" t="s">
         <v>231</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="A55" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="1" t="s">
         <v>235</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="A56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="1" t="s">
         <v>239</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="A57" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="1" t="s">
         <v>244</v>
       </c>
@@ -3834,16 +3834,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B49:B51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3866,7 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169BD0B-786C-4C25-B011-25F528316559}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3883,17 +3883,17 @@
     <col min="8" max="8" width="19.85546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="57" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
